--- a/model/spectrogram/ros/result_excel_valid.xlsx
+++ b/model/spectrogram/ros/result_excel_valid.xlsx
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2075-phrase</t>
+          <t>1433-phrase</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -473,25 +473,25 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.5001123547554016</v>
+        <v>0.9764492511749268</v>
       </c>
       <c r="E2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>747-phrase</t>
+          <t>1958-phrase</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -500,30 +500,30 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.9572057723999023</v>
+        <v>0.6644418835639954</v>
       </c>
       <c r="E3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1509-phrase</t>
+          <t>1227-phrase</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.9521135687828064</v>
+        <v>0.9743645191192627</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -532,7 +532,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1033-phrase</t>
+          <t>1877-phrase</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.8930526375770569</v>
+        <v>0.9386088252067566</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -555,21 +555,21 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1732-phrase</t>
+          <t>1567-phrase</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.9688666462898254</v>
+        <v>0.9608473777770996</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -578,21 +578,21 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1002-phrase</t>
+          <t>2376-phrase</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.6032049059867859</v>
+        <v>0.9697872996330261</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -601,7 +601,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1002-phrase</t>
+          <t>1579-phrase</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.6032049059867859</v>
+        <v>0.9510409235954285</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -624,21 +624,21 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1847-phrase</t>
+          <t>358-phrase</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.7538504600524902</v>
+        <v>0.9742382168769836</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -647,21 +647,21 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>688-phrase</t>
+          <t>1197-phrase</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.9502782821655273</v>
+        <v>0.967875599861145</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -670,21 +670,21 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>13-phrase</t>
+          <t>1829-phrase</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.9581559300422668</v>
+        <v>0.9778127670288086</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -693,7 +693,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>151-phrase</t>
+          <t>2609-phrase</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.9454827904701233</v>
+        <v>0.8640650510787964</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -716,7 +716,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1009-phrase</t>
+          <t>1573-phrase</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.8880520462989807</v>
+        <v>0.9818208813667297</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -739,21 +739,21 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>124-phrase</t>
+          <t>1802-phrase</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.8925616145133972</v>
+        <v>0.9710885882377625</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -762,7 +762,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1394-phrase</t>
+          <t>2520-phrase</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.9615535140037537</v>
+        <v>0.9598290324211121</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -785,21 +785,21 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1964-phrase</t>
+          <t>9-phrase</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.9258292317390442</v>
+        <v>0.8899932503700256</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -808,21 +808,21 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1106-phrase</t>
+          <t>1760-phrase</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.9610262513160706</v>
+        <v>0.9766628742218018</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
@@ -831,21 +831,21 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1321-phrase</t>
+          <t>2262-phrase</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.9091797471046448</v>
+        <v>0.9621692299842834</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
@@ -854,21 +854,21 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2305-phrase</t>
+          <t>1072-phrase</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.8870383501052856</v>
+        <v>0.8665313124656677</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
@@ -877,7 +877,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1702-phrase</t>
+          <t>1427-phrase</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.9303656220436096</v>
+        <v>0.9620025157928467</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
@@ -900,7 +900,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>503-phrase</t>
+          <t>2027-phrase</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -914,7 +914,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.9581195712089539</v>
+        <v>0.9584776759147644</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
@@ -923,7 +923,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2326-phrase</t>
+          <t>850-phrase</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.9696719646453857</v>
+        <v>0.9624996781349182</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
@@ -946,21 +946,21 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1729-phrase</t>
+          <t>2296-phrase</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.914161741733551</v>
+        <v>0.9716693162918091</v>
       </c>
       <c r="E23" t="b">
         <v>1</v>
@@ -969,7 +969,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1042-phrase</t>
+          <t>2563-phrase</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -983,7 +983,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.8708504438400269</v>
+        <v>0.9675089120864868</v>
       </c>
       <c r="E24" t="b">
         <v>1</v>
@@ -992,7 +992,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1583-phrase</t>
+          <t>842-phrase</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.8995033502578735</v>
+        <v>0.8720921277999878</v>
       </c>
       <c r="E25" t="b">
         <v>1</v>
@@ -1015,7 +1015,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1122-phrase</t>
+          <t>156-phrase</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1029,7 +1029,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.9343852400779724</v>
+        <v>0.9077977538108826</v>
       </c>
       <c r="E26" t="b">
         <v>1</v>
@@ -1038,7 +1038,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>995-phrase</t>
+          <t>13-phrase</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.8680241703987122</v>
+        <v>0.968224823474884</v>
       </c>
       <c r="E27" t="b">
         <v>1</v>
@@ -1061,7 +1061,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1701-phrase</t>
+          <t>103-phrase</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1075,7 +1075,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.9302741885185242</v>
+        <v>0.9797577261924744</v>
       </c>
       <c r="E28" t="b">
         <v>1</v>
@@ -1084,12 +1084,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>996-phrase</t>
+          <t>2552-phrase</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1098,16 +1098,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.8497076630592346</v>
+        <v>0.7716358304023743</v>
       </c>
       <c r="E29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2548-phrase</t>
+          <t>2301-phrase</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.8978108763694763</v>
+        <v>0.9209601879119873</v>
       </c>
       <c r="E30" t="b">
         <v>1</v>
@@ -1130,7 +1130,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>136-phrase</t>
+          <t>1370-phrase</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.8879088163375854</v>
+        <v>0.9740118384361267</v>
       </c>
       <c r="E31" t="b">
         <v>1</v>
@@ -1153,21 +1153,21 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>27-phrase</t>
+          <t>2336-phrase</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.9466650485992432</v>
+        <v>0.9464869499206543</v>
       </c>
       <c r="E32" t="b">
         <v>1</v>
@@ -1176,7 +1176,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>98-phrase</t>
+          <t>126-phrase</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.9347711205482483</v>
+        <v>0.9392303228378296</v>
       </c>
       <c r="E33" t="b">
         <v>1</v>
@@ -1199,7 +1199,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2253-phrase</t>
+          <t>1003-phrase</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1213,7 +1213,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.9260715246200562</v>
+        <v>0.9716103672981262</v>
       </c>
       <c r="E34" t="b">
         <v>1</v>
@@ -1222,7 +1222,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1861-phrase</t>
+          <t>1058-phrase</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1236,7 +1236,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.9498428106307983</v>
+        <v>0.947847843170166</v>
       </c>
       <c r="E35" t="b">
         <v>1</v>
@@ -1245,7 +1245,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2425-phrase</t>
+          <t>1465-phrase</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1259,7 +1259,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.9219957590103149</v>
+        <v>0.9703115224838257</v>
       </c>
       <c r="E36" t="b">
         <v>1</v>
@@ -1268,7 +1268,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1788-phrase</t>
+          <t>1616-phrase</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1278,34 +1278,34 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.932498037815094</v>
+        <v>0.9395114183425903</v>
       </c>
       <c r="E37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1282-phrase</t>
+          <t>59-phrase</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.9574132561683655</v>
+        <v>0.910256028175354</v>
       </c>
       <c r="E38" t="b">
         <v>1</v>
@@ -1314,7 +1314,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2522-phrase</t>
+          <t>1863-phrase</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1328,7 +1328,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.8803361654281616</v>
+        <v>0.9608604907989502</v>
       </c>
       <c r="E39" t="b">
         <v>1</v>
@@ -1337,7 +1337,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1377-phrase</t>
+          <t>1172-phrase</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1347,20 +1347,20 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.8138295412063599</v>
+        <v>0.932924211025238</v>
       </c>
       <c r="E40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2607-phrase</t>
+          <t>1292-phrase</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1374,7 +1374,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.9481620788574219</v>
+        <v>0.9713209867477417</v>
       </c>
       <c r="E41" t="b">
         <v>1</v>
@@ -1383,12 +1383,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2530-phrase</t>
+          <t>1815-phrase</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1397,30 +1397,30 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.6125577688217163</v>
+        <v>0.968425452709198</v>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1817-phrase</t>
+          <t>955-phrase</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.9651501178741455</v>
+        <v>0.9493421912193298</v>
       </c>
       <c r="E43" t="b">
         <v>1</v>
@@ -1429,7 +1429,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1267-phrase</t>
+          <t>1834-phrase</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.8170639872550964</v>
+        <v>0.8015855550765991</v>
       </c>
       <c r="E44" t="b">
         <v>1</v>
@@ -1452,7 +1452,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2437-phrase</t>
+          <t>2421-phrase</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1466,7 +1466,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.8908111453056335</v>
+        <v>0.9451808929443359</v>
       </c>
       <c r="E45" t="b">
         <v>1</v>
@@ -1475,21 +1475,21 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1314-phrase</t>
+          <t>963-phrase</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.9283514618873596</v>
+        <v>0.9638145565986633</v>
       </c>
       <c r="E46" t="b">
         <v>1</v>
@@ -1498,21 +1498,21 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1981-phrase</t>
+          <t>57-phrase</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.9072561264038086</v>
+        <v>0.8708066940307617</v>
       </c>
       <c r="E47" t="b">
         <v>1</v>
@@ -1521,21 +1521,21 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2462-phrase</t>
+          <t>2226-phrase</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.9503545761108398</v>
+        <v>0.9785420894622803</v>
       </c>
       <c r="E48" t="b">
         <v>1</v>
@@ -1544,7 +1544,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1516-phrase</t>
+          <t>803-phrase</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1554,20 +1554,20 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.9067689776420593</v>
+        <v>0.7715123891830444</v>
       </c>
       <c r="E49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1215-phrase</t>
+          <t>2259-phrase</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1577,20 +1577,20 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.8596869111061096</v>
+        <v>0.5121914744377136</v>
       </c>
       <c r="E50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1393-phrase</t>
+          <t>1578-phrase</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.9288615584373474</v>
+        <v>0.9636315107345581</v>
       </c>
       <c r="E51" t="b">
         <v>1</v>
@@ -1613,7 +1613,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1944-phrase</t>
+          <t>2241-phrase</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.5980428457260132</v>
+        <v>0.9664575457572937</v>
       </c>
       <c r="E52" t="b">
         <v>1</v>
@@ -1636,12 +1636,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1800-phrase</t>
+          <t>1710-phrase</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1650,30 +1650,30 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.8357859253883362</v>
+        <v>0.9504488110542297</v>
       </c>
       <c r="E53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2193-phrase</t>
+          <t>1180-phrase</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.9450127482414246</v>
+        <v>0.9907997250556946</v>
       </c>
       <c r="E54" t="b">
         <v>1</v>
@@ -1682,7 +1682,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2279-phrase</t>
+          <t>1513-phrase</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.9629390835762024</v>
+        <v>0.9844911694526672</v>
       </c>
       <c r="E55" t="b">
         <v>1</v>
@@ -1705,7 +1705,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2427-phrase</t>
+          <t>2147-phrase</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1719,7 +1719,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.9514368176460266</v>
+        <v>0.8881816864013672</v>
       </c>
       <c r="E56" t="b">
         <v>1</v>
@@ -1728,7 +1728,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1531-phrase</t>
+          <t>50-phrase</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.9578444361686707</v>
+        <v>0.8485977649688721</v>
       </c>
       <c r="E57" t="b">
         <v>1</v>
@@ -1751,21 +1751,21 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2206-phrase</t>
+          <t>731-phrase</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.9487632513046265</v>
+        <v>0.9615301489830017</v>
       </c>
       <c r="E58" t="b">
         <v>1</v>
@@ -1774,7 +1774,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1734-phrase</t>
+          <t>1587-phrase</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1788,7 +1788,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.9225525259971619</v>
+        <v>0.9470207095146179</v>
       </c>
       <c r="E59" t="b">
         <v>1</v>
@@ -1797,21 +1797,21 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1706-phrase</t>
+          <t>1402-phrase</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.9223421812057495</v>
+        <v>0.9669048190116882</v>
       </c>
       <c r="E60" t="b">
         <v>1</v>
@@ -1820,7 +1820,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>696-phrase</t>
+          <t>79-phrase</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1834,7 +1834,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.9192588329315186</v>
+        <v>0.746056854724884</v>
       </c>
       <c r="E61" t="b">
         <v>1</v>
@@ -1843,21 +1843,21 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>829-phrase</t>
+          <t>745-phrase</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.9329882860183716</v>
+        <v>0.9333857297897339</v>
       </c>
       <c r="E62" t="b">
         <v>1</v>
@@ -1866,7 +1866,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2372-phrase</t>
+          <t>629-phrase</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1876,20 +1876,20 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.8502132892608643</v>
+        <v>0.9792558550834656</v>
       </c>
       <c r="E63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>11-phrase</t>
+          <t>2478-phrase</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1903,7 +1903,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.9515273571014404</v>
+        <v>0.9436241984367371</v>
       </c>
       <c r="E64" t="b">
         <v>0</v>
@@ -1912,7 +1912,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>135-phrase</t>
+          <t>2248-phrase</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.7774662375450134</v>
+        <v>0.9411762356758118</v>
       </c>
       <c r="E65" t="b">
         <v>1</v>
@@ -1935,21 +1935,21 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1286-phrase</t>
+          <t>1368-phrase</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.9929333925247192</v>
+        <v>0.9628194570541382</v>
       </c>
       <c r="E66" t="b">
         <v>1</v>
@@ -1958,21 +1958,21 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>942-phrase</t>
+          <t>1807-phrase</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.9580039978027344</v>
+        <v>0.9694862961769104</v>
       </c>
       <c r="E67" t="b">
         <v>1</v>
@@ -1981,7 +1981,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1732-phrase</t>
+          <t>1544-phrase</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1995,7 +1995,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.9688666462898254</v>
+        <v>0.8327874541282654</v>
       </c>
       <c r="E68" t="b">
         <v>1</v>
@@ -2004,21 +2004,21 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2327-phrase</t>
+          <t>1840-phrase</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.8814352750778198</v>
+        <v>0.9106979370117188</v>
       </c>
       <c r="E69" t="b">
         <v>1</v>
@@ -2027,7 +2027,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>124-phrase</t>
+          <t>1104-phrase</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2041,7 +2041,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.8925616145133972</v>
+        <v>0.9279022216796875</v>
       </c>
       <c r="E70" t="b">
         <v>1</v>
@@ -2050,21 +2050,21 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>964-phrase</t>
+          <t>2247-phrase</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.9459876418113708</v>
+        <v>0.9752880930900574</v>
       </c>
       <c r="E71" t="b">
         <v>1</v>
@@ -2073,21 +2073,21 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1872-phrase</t>
+          <t>1691-phrase</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0.9527643322944641</v>
+        <v>0.9668827652931213</v>
       </c>
       <c r="E72" t="b">
         <v>1</v>
@@ -2096,7 +2096,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>709-phrase</t>
+          <t>72-phrase</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2110,7 +2110,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.9474775195121765</v>
+        <v>0.9455418586730957</v>
       </c>
       <c r="E73" t="b">
         <v>1</v>
@@ -2119,21 +2119,21 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2503-phrase</t>
+          <t>841-phrase</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.9479708075523376</v>
+        <v>0.9452845454216003</v>
       </c>
       <c r="E74" t="b">
         <v>1</v>
@@ -2142,7 +2142,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>954-phrase</t>
+          <t>1736-phrase</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2152,34 +2152,34 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.9200195074081421</v>
+        <v>0.9624863862991333</v>
       </c>
       <c r="E75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1025-phrase</t>
+          <t>1998-phrase</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.7638459205627441</v>
+        <v>0.9546785950660706</v>
       </c>
       <c r="E76" t="b">
         <v>1</v>
@@ -2188,21 +2188,21 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1257-phrase</t>
+          <t>2285-phrase</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.9717247486114502</v>
+        <v>0.972288191318512</v>
       </c>
       <c r="E77" t="b">
         <v>1</v>
@@ -2211,21 +2211,21 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1977-phrase</t>
+          <t>967-phrase</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.9665272831916809</v>
+        <v>0.9596030712127686</v>
       </c>
       <c r="E78" t="b">
         <v>1</v>
@@ -2234,12 +2234,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2079-phrase</t>
+          <t>1523-phrase</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2248,16 +2248,16 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.9207026958465576</v>
+        <v>0.768401026725769</v>
       </c>
       <c r="E79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2089-phrase</t>
+          <t>2330-phrase</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.9243587851524353</v>
+        <v>0.9771881103515625</v>
       </c>
       <c r="E80" t="b">
         <v>1</v>
@@ -2280,21 +2280,21 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1181-phrase</t>
+          <t>1743-phrase</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0.878601610660553</v>
+        <v>0.9509634375572205</v>
       </c>
       <c r="E81" t="b">
         <v>1</v>
@@ -2303,21 +2303,21 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>41-phrase</t>
+          <t>1720-phrase</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0.7886772751808167</v>
+        <v>0.9796072244644165</v>
       </c>
       <c r="E82" t="b">
         <v>1</v>
@@ -2326,7 +2326,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>94-phrase</t>
+          <t>3-phrase</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2340,7 +2340,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0.8583676218986511</v>
+        <v>0.9179909825325012</v>
       </c>
       <c r="E83" t="b">
         <v>1</v>
@@ -2349,7 +2349,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>685-phrase</t>
+          <t>1837-phrase</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2363,7 +2363,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0.9211586713790894</v>
+        <v>0.9336989521980286</v>
       </c>
       <c r="E84" t="b">
         <v>1</v>
@@ -2372,7 +2372,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2500-phrase</t>
+          <t>875-phrase</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0.9704190492630005</v>
+        <v>0.9803887605667114</v>
       </c>
       <c r="E85" t="b">
         <v>1</v>
@@ -2395,7 +2395,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2428-phrase</t>
+          <t>119-phrase</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2409,7 +2409,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0.9117129445075989</v>
+        <v>0.9413171410560608</v>
       </c>
       <c r="E86" t="b">
         <v>1</v>
@@ -2418,21 +2418,21 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>1847-phrase</t>
+          <t>2302-phrase</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0.7538504600524902</v>
+        <v>0.9671427011489868</v>
       </c>
       <c r="E87" t="b">
         <v>1</v>
@@ -2441,21 +2441,21 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>1336-phrase</t>
+          <t>2345-phrase</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0.9627211093902588</v>
+        <v>0.9603112936019897</v>
       </c>
       <c r="E88" t="b">
         <v>1</v>
@@ -2464,7 +2464,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2403-phrase</t>
+          <t>897-phrase</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2478,7 +2478,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0.9771950840950012</v>
+        <v>0.9778187274932861</v>
       </c>
       <c r="E89" t="b">
         <v>1</v>
@@ -2487,12 +2487,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>1363-phrase</t>
+          <t>1411-phrase</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2501,21 +2501,21 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0.8965926766395569</v>
+        <v>0.8071737289428711</v>
       </c>
       <c r="E90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2322-phrase</t>
+          <t>29-phrase</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2524,30 +2524,30 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0.9867266416549683</v>
+        <v>0.9362367987632751</v>
       </c>
       <c r="E91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>951-phrase</t>
+          <t>147-phrase</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0.9096481800079346</v>
+        <v>0.938795268535614</v>
       </c>
       <c r="E92" t="b">
         <v>1</v>
@@ -2556,7 +2556,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>1723-phrase</t>
+          <t>2391-phrase</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2570,7 +2570,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0.9724679589271545</v>
+        <v>0.9750198721885681</v>
       </c>
       <c r="E93" t="b">
         <v>1</v>
@@ -2579,7 +2579,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2369-phrase</t>
+          <t>1501-phrase</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2589,20 +2589,20 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0.9687174558639526</v>
+        <v>0.8947728276252747</v>
       </c>
       <c r="E94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>1120-phrase</t>
+          <t>1249-phrase</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2616,7 +2616,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0.9665688276290894</v>
+        <v>0.9777421355247498</v>
       </c>
       <c r="E95" t="b">
         <v>1</v>
@@ -2625,7 +2625,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>1033-phrase</t>
+          <t>157-phrase</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2639,7 +2639,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0.8930526375770569</v>
+        <v>0.9792656302452087</v>
       </c>
       <c r="E96" t="b">
         <v>1</v>
@@ -2648,21 +2648,21 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>910-phrase</t>
+          <t>1028-phrase</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0.8819479942321777</v>
+        <v>0.957801878452301</v>
       </c>
       <c r="E97" t="b">
         <v>1</v>
@@ -2671,21 +2671,21 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>846-phrase</t>
+          <t>1512-phrase</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0.9775732755661011</v>
+        <v>0.9297472238540649</v>
       </c>
       <c r="E98" t="b">
         <v>1</v>
@@ -2694,7 +2694,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2505-phrase</t>
+          <t>2001-phrase</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -2708,7 +2708,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>0.9057005047798157</v>
+        <v>0.912641167640686</v>
       </c>
       <c r="E99" t="b">
         <v>1</v>
@@ -2717,7 +2717,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>988-phrase</t>
+          <t>1513-phrase</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -2731,7 +2731,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0.9302013516426086</v>
+        <v>0.9844911694526672</v>
       </c>
       <c r="E100" t="b">
         <v>1</v>
@@ -2740,7 +2740,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2085-phrase</t>
+          <t>2545-phrase</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2754,7 +2754,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0.9342588186264038</v>
+        <v>0.9796338081359863</v>
       </c>
       <c r="E101" t="b">
         <v>1</v>
@@ -2763,21 +2763,21 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>1905-phrase</t>
+          <t>739-phrase</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>0.987654983997345</v>
+        <v>0.9388455748558044</v>
       </c>
       <c r="E102" t="b">
         <v>1</v>
@@ -2786,21 +2786,21 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>37-phrase</t>
+          <t>1256-phrase</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>0.9724595546722412</v>
+        <v>0.9387642741203308</v>
       </c>
       <c r="E103" t="b">
         <v>1</v>
@@ -2809,7 +2809,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>1568-phrase</t>
+          <t>2567-phrase</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -2823,7 +2823,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>0.8236197233200073</v>
+        <v>0.9762282371520996</v>
       </c>
       <c r="E104" t="b">
         <v>1</v>
@@ -2832,21 +2832,21 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>1598-phrase</t>
+          <t>1774-phrase</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0.9258289337158203</v>
+        <v>0.9664488434791565</v>
       </c>
       <c r="E105" t="b">
         <v>1</v>
@@ -2855,21 +2855,21 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2323-phrase</t>
+          <t>1125-phrase</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0.9468213319778442</v>
+        <v>0.9649853706359863</v>
       </c>
       <c r="E106" t="b">
         <v>1</v>
@@ -2878,21 +2878,21 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>841-phrase</t>
+          <t>1888-phrase</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>0.8944326043128967</v>
+        <v>0.9522573351860046</v>
       </c>
       <c r="E107" t="b">
         <v>1</v>
@@ -2901,7 +2901,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>1400-phrase</t>
+          <t>1451-phrase</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -2915,7 +2915,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>0.920122504234314</v>
+        <v>0.9681771397590637</v>
       </c>
       <c r="E108" t="b">
         <v>1</v>
@@ -2924,7 +2924,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>1339-phrase</t>
+          <t>2341-phrase</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2938,7 +2938,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>0.9145408868789673</v>
+        <v>0.8701955676078796</v>
       </c>
       <c r="E109" t="b">
         <v>1</v>
@@ -2947,21 +2947,21 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2222-phrase</t>
+          <t>1884-phrase</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>0.9425814151763916</v>
+        <v>0.9825969338417053</v>
       </c>
       <c r="E110" t="b">
         <v>1</v>
@@ -2970,21 +2970,21 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>1026-phrase</t>
+          <t>863-phrase</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>0.9648772478103638</v>
+        <v>0.9737544059753418</v>
       </c>
       <c r="E111" t="b">
         <v>1</v>
@@ -2993,21 +2993,21 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>968-phrase</t>
+          <t>2232-phrase</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>0.8889767527580261</v>
+        <v>0.9457672238349915</v>
       </c>
       <c r="E112" t="b">
         <v>1</v>
@@ -3016,7 +3016,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2156-phrase</t>
+          <t>819-phrase</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3030,7 +3030,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>0.9573585391044617</v>
+        <v>0.9718908667564392</v>
       </c>
       <c r="E113" t="b">
         <v>1</v>
@@ -3039,21 +3039,21 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>1385-phrase</t>
+          <t>1582-phrase</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>0.8491394519805908</v>
+        <v>0.9126628041267395</v>
       </c>
       <c r="E114" t="b">
         <v>1</v>
@@ -3062,21 +3062,21 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>1455-phrase</t>
+          <t>684-phrase</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0.9485108256340027</v>
+        <v>0.965431809425354</v>
       </c>
       <c r="E115" t="b">
         <v>1</v>
@@ -3085,7 +3085,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>973-phrase</t>
+          <t>1131-phrase</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -3099,7 +3099,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>0.9520013928413391</v>
+        <v>0.9189539551734924</v>
       </c>
       <c r="E116" t="b">
         <v>1</v>
@@ -3108,7 +3108,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>1019-phrase</t>
+          <t>34-phrase</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0.9514691829681396</v>
+        <v>0.920941174030304</v>
       </c>
       <c r="E117" t="b">
         <v>1</v>
@@ -3131,21 +3131,21 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>1883-phrase</t>
+          <t>1976-phrase</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>0.9469624161720276</v>
+        <v>0.9500834345817566</v>
       </c>
       <c r="E118" t="b">
         <v>1</v>
@@ -3154,7 +3154,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>1036-phrase</t>
+          <t>838-phrase</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3164,34 +3164,34 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>0.8674513697624207</v>
+        <v>0.8948615193367004</v>
       </c>
       <c r="E119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2137-phrase</t>
+          <t>807-phrase</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>0.9766355752944946</v>
+        <v>0.9464640021324158</v>
       </c>
       <c r="E120" t="b">
         <v>1</v>
@@ -3200,21 +3200,21 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>1655-phrase</t>
+          <t>1711-phrase</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0.9149788022041321</v>
+        <v>0.775252640247345</v>
       </c>
       <c r="E121" t="b">
         <v>1</v>
@@ -3223,7 +3223,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>348-phrase</t>
+          <t>2371-phrase</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3237,7 +3237,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0.9322778582572937</v>
+        <v>0.8689301013946533</v>
       </c>
       <c r="E122" t="b">
         <v>1</v>
@@ -3246,21 +3246,21 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>1537-phrase</t>
+          <t>2588-phrase</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>0.8968974351882935</v>
+        <v>0.9797648191452026</v>
       </c>
       <c r="E123" t="b">
         <v>1</v>
@@ -3269,7 +3269,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>1968-phrase</t>
+          <t>1450-phrase</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -3283,7 +3283,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>0.9640718698501587</v>
+        <v>0.979750394821167</v>
       </c>
       <c r="E124" t="b">
         <v>1</v>
@@ -3292,21 +3292,21 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2370-phrase</t>
+          <t>1729-phrase</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>0.8871648907661438</v>
+        <v>0.9391878247261047</v>
       </c>
       <c r="E125" t="b">
         <v>1</v>
@@ -3315,21 +3315,21 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2538-phrase</t>
+          <t>1017-phrase</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0.9591360688209534</v>
+        <v>0.9605600237846375</v>
       </c>
       <c r="E126" t="b">
         <v>1</v>
@@ -3338,7 +3338,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>1252-phrase</t>
+          <t>2077-phrase</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>0.8412647247314453</v>
+        <v>0.9727466106414795</v>
       </c>
       <c r="E127" t="b">
         <v>1</v>
@@ -3361,7 +3361,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>1142-phrase</t>
+          <t>690-phrase</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -3375,7 +3375,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>0.9447751045227051</v>
+        <v>0.9768365025520325</v>
       </c>
       <c r="E128" t="b">
         <v>1</v>
@@ -3384,12 +3384,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>1211-phrase</t>
+          <t>1929-phrase</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3398,30 +3398,30 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>0.8985243439674377</v>
+        <v>0.9268065690994263</v>
       </c>
       <c r="E129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2537-phrase</t>
+          <t>84-phrase</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0.8152565360069275</v>
+        <v>0.9213114380836487</v>
       </c>
       <c r="E130" t="b">
         <v>1</v>
@@ -3430,12 +3430,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>1099-phrase</t>
+          <t>1694-phrase</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3444,30 +3444,30 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>0.9175015091896057</v>
+        <v>0.6313740015029907</v>
       </c>
       <c r="E131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>65-phrase</t>
+          <t>2242-phrase</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>0.8987661004066467</v>
+        <v>0.9691916704177856</v>
       </c>
       <c r="E132" t="b">
         <v>1</v>
@@ -3476,7 +3476,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>1223-phrase</t>
+          <t>1296-phrase</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -3490,7 +3490,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>0.6224400997161865</v>
+        <v>0.9184436798095703</v>
       </c>
       <c r="E133" t="b">
         <v>1</v>
@@ -3499,21 +3499,21 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2401-phrase</t>
+          <t>61-phrase</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>0.946910560131073</v>
+        <v>0.9647160172462463</v>
       </c>
       <c r="E134" t="b">
         <v>1</v>
@@ -3522,7 +3522,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>833-phrase</t>
+          <t>1106-phrase</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -3536,7 +3536,7 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>0.985059380531311</v>
+        <v>0.9822368025779724</v>
       </c>
       <c r="E135" t="b">
         <v>1</v>
@@ -3545,7 +3545,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>1015-phrase</t>
+          <t>1512-phrase</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -3559,7 +3559,7 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>0.7876045703887939</v>
+        <v>0.9297472238540649</v>
       </c>
       <c r="E136" t="b">
         <v>1</v>
@@ -3568,7 +3568,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>1728-phrase</t>
+          <t>20-phrase</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -3582,7 +3582,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>0.9448909759521484</v>
+        <v>0.9541828632354736</v>
       </c>
       <c r="E137" t="b">
         <v>1</v>
@@ -3591,7 +3591,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>1341-phrase</t>
+          <t>2303-phrase</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -3605,7 +3605,7 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>0.9216984510421753</v>
+        <v>0.979137659072876</v>
       </c>
       <c r="E138" t="b">
         <v>1</v>
@@ -3614,7 +3614,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>734-phrase</t>
+          <t>1125-phrase</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -3628,7 +3628,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>0.9649735689163208</v>
+        <v>0.9649853706359863</v>
       </c>
       <c r="E139" t="b">
         <v>1</v>
@@ -3637,7 +3637,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>364-phrase</t>
+          <t>1913-phrase</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -3651,7 +3651,7 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>0.8381683230400085</v>
+        <v>0.9692700505256653</v>
       </c>
       <c r="E140" t="b">
         <v>1</v>
@@ -3660,7 +3660,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>1935-phrase</t>
+          <t>1631-phrase</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -3674,7 +3674,7 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>0.9643115401268005</v>
+        <v>0.9688568711280823</v>
       </c>
       <c r="E141" t="b">
         <v>1</v>
@@ -3683,21 +3683,21 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>860-phrase</t>
+          <t>2015-phrase</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>0.9659648537635803</v>
+        <v>0.9171159267425537</v>
       </c>
       <c r="E142" t="b">
         <v>1</v>
@@ -3706,21 +3706,21 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>1035-phrase</t>
+          <t>2590-phrase</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>0.9469021558761597</v>
+        <v>0.9660013318061829</v>
       </c>
       <c r="E143" t="b">
         <v>1</v>
@@ -3729,21 +3729,21 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>1643-phrase</t>
+          <t>98-phrase</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>0.9007819890975952</v>
+        <v>0.979864239692688</v>
       </c>
       <c r="E144" t="b">
         <v>1</v>
@@ -3752,7 +3752,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>1427-phrase</t>
+          <t>1709-phrase</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -3766,7 +3766,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>0.9458935856819153</v>
+        <v>0.987740695476532</v>
       </c>
       <c r="E145" t="b">
         <v>1</v>
@@ -3775,7 +3775,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>694-phrase</t>
+          <t>1850-phrase</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>0.8884755969047546</v>
+        <v>0.9477225542068481</v>
       </c>
       <c r="E146" t="b">
         <v>1</v>
@@ -3798,7 +3798,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>1467-phrase</t>
+          <t>1446-phrase</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -3812,7 +3812,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>0.814581573009491</v>
+        <v>0.9764660596847534</v>
       </c>
       <c r="E147" t="b">
         <v>1</v>
@@ -3821,21 +3821,21 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>1509-phrase</t>
+          <t>2102-phrase</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>0.9521135687828064</v>
+        <v>0.9357442259788513</v>
       </c>
       <c r="E148" t="b">
         <v>1</v>
@@ -3844,21 +3844,21 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2063-phrase</t>
+          <t>1731-phrase</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>0.9134863018989563</v>
+        <v>0.9209657311439514</v>
       </c>
       <c r="E149" t="b">
         <v>1</v>
@@ -3867,7 +3867,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>1417-phrase</t>
+          <t>1311-phrase</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -3881,7 +3881,7 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>0.8902919888496399</v>
+        <v>0.7438603639602661</v>
       </c>
       <c r="E150" t="b">
         <v>1</v>
@@ -3890,7 +3890,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>1486-phrase</t>
+          <t>2366-phrase</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -3904,7 +3904,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>0.9314119219779968</v>
+        <v>0.9684277176856995</v>
       </c>
       <c r="E151" t="b">
         <v>1</v>
@@ -3913,7 +3913,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>1862-phrase</t>
+          <t>1632-phrase</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>0.9708022475242615</v>
+        <v>0.9440993666648865</v>
       </c>
       <c r="E152" t="b">
         <v>1</v>
@@ -3936,7 +3936,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>48-phrase</t>
+          <t>971-phrase</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -3950,7 +3950,7 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>0.8635442852973938</v>
+        <v>0.9840630292892456</v>
       </c>
       <c r="E153" t="b">
         <v>1</v>
@@ -3959,7 +3959,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>1838-phrase</t>
+          <t>1075-phrase</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -3973,7 +3973,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>0.9480683207511902</v>
+        <v>0.9405776858329773</v>
       </c>
       <c r="E154" t="b">
         <v>1</v>
@@ -3982,21 +3982,21 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>1536-phrase</t>
+          <t>105-phrase</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>0.900016188621521</v>
+        <v>0.9686230421066284</v>
       </c>
       <c r="E155" t="b">
         <v>1</v>
@@ -4005,21 +4005,21 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>951-phrase</t>
+          <t>2120-phrase</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>0.9096481800079346</v>
+        <v>0.973401665687561</v>
       </c>
       <c r="E156" t="b">
         <v>1</v>
@@ -4028,7 +4028,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>1148-phrase</t>
+          <t>1111-phrase</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>0.9407711625099182</v>
+        <v>0.9341416358947754</v>
       </c>
       <c r="E157" t="b">
         <v>1</v>
@@ -4051,7 +4051,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>1679-phrase</t>
+          <t>2454-phrase</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -4065,7 +4065,7 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>0.968720018863678</v>
+        <v>0.9611234664916992</v>
       </c>
       <c r="E158" t="b">
         <v>1</v>
@@ -4074,7 +4074,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>696-phrase</t>
+          <t>1060-phrase</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -4088,7 +4088,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>0.9192588329315186</v>
+        <v>0.9922745823860168</v>
       </c>
       <c r="E159" t="b">
         <v>1</v>
@@ -4097,21 +4097,21 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>1310-phrase</t>
+          <t>2281-phrase</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>0.897177517414093</v>
+        <v>0.9278530478477478</v>
       </c>
       <c r="E160" t="b">
         <v>1</v>
@@ -4120,21 +4120,21 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>1681-phrase</t>
+          <t>63-phrase</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>0.9502005577087402</v>
+        <v>0.9497600793838501</v>
       </c>
       <c r="E161" t="b">
         <v>1</v>
@@ -4143,7 +4143,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>1823-phrase</t>
+          <t>1627-phrase</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -4157,7 +4157,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>0.8845718502998352</v>
+        <v>0.9557989835739136</v>
       </c>
       <c r="E162" t="b">
         <v>1</v>
@@ -4166,21 +4166,21 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2519-phrase</t>
+          <t>2249-phrase</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>0.9072403907775879</v>
+        <v>0.9484684467315674</v>
       </c>
       <c r="E163" t="b">
         <v>1</v>
@@ -4189,7 +4189,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2338-phrase</t>
+          <t>907-phrase</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -4203,7 +4203,7 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>0.9039350748062134</v>
+        <v>0.9660500884056091</v>
       </c>
       <c r="E164" t="b">
         <v>1</v>
@@ -4212,21 +4212,21 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2513-phrase</t>
+          <t>123-phrase</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>0.8994588851928711</v>
+        <v>0.9328336119651794</v>
       </c>
       <c r="E165" t="b">
         <v>1</v>
@@ -4235,7 +4235,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>903-phrase</t>
+          <t>1767-phrase</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -4249,7 +4249,7 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>0.8755685091018677</v>
+        <v>0.9758092761039734</v>
       </c>
       <c r="E166" t="b">
         <v>1</v>
@@ -4258,7 +4258,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2465-phrase</t>
+          <t>2119-phrase</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -4272,7 +4272,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>0.9304459095001221</v>
+        <v>0.9721671938896179</v>
       </c>
       <c r="E167" t="b">
         <v>1</v>
@@ -4281,21 +4281,21 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2288-phrase</t>
+          <t>1847-phrase</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>0.9585312008857727</v>
+        <v>0.9099380373954773</v>
       </c>
       <c r="E168" t="b">
         <v>1</v>
@@ -4304,7 +4304,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>145-phrase</t>
+          <t>92-phrase</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -4318,7 +4318,7 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>0.7696991562843323</v>
+        <v>0.9327096939086914</v>
       </c>
       <c r="E169" t="b">
         <v>1</v>
@@ -4327,21 +4327,21 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>55-phrase</t>
+          <t>1483-phrase</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>0.8977188467979431</v>
+        <v>0.8334563374519348</v>
       </c>
       <c r="E170" t="b">
         <v>1</v>
@@ -4350,21 +4350,21 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>834-phrase</t>
+          <t>936-phrase</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>0.6211680769920349</v>
+        <v>0.9762436747550964</v>
       </c>
       <c r="E171" t="b">
         <v>1</v>
@@ -4373,7 +4373,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>1121-phrase</t>
+          <t>25-phrase</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -4387,7 +4387,7 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>0.90968918800354</v>
+        <v>0.850952684879303</v>
       </c>
       <c r="E172" t="b">
         <v>1</v>
@@ -4396,21 +4396,21 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>706-phrase</t>
+          <t>1790-phrase</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>0.954836905002594</v>
+        <v>0.9068830013275146</v>
       </c>
       <c r="E173" t="b">
         <v>1</v>
@@ -4419,21 +4419,21 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>99-phrase</t>
+          <t>1244-phrase</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>0.7655531764030457</v>
+        <v>0.9456508755683899</v>
       </c>
       <c r="E174" t="b">
         <v>1</v>
@@ -4442,21 +4442,21 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2236-phrase</t>
+          <t>862-phrase</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>0.9025602340698242</v>
+        <v>0.9797009229660034</v>
       </c>
       <c r="E175" t="b">
         <v>1</v>
@@ -4465,7 +4465,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>1879-phrase</t>
+          <t>74-phrase</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -4479,7 +4479,7 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>0.9132509231567383</v>
+        <v>0.9401196837425232</v>
       </c>
       <c r="E176" t="b">
         <v>1</v>
@@ -4488,21 +4488,21 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>1361-phrase</t>
+          <t>2093-phrase</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>0.9304807782173157</v>
+        <v>0.9614734649658203</v>
       </c>
       <c r="E177" t="b">
         <v>1</v>
@@ -4511,21 +4511,21 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2069-phrase</t>
+          <t>85-phrase</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>0.9215036630630493</v>
+        <v>0.9514371156692505</v>
       </c>
       <c r="E178" t="b">
         <v>1</v>
@@ -4534,7 +4534,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>1735-phrase</t>
+          <t>1371-phrase</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -4548,7 +4548,7 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>0.5688380599021912</v>
+        <v>0.9620169401168823</v>
       </c>
       <c r="E179" t="b">
         <v>1</v>
@@ -4557,21 +4557,21 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>1316-phrase</t>
+          <t>2280-phrase</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>0.8985575437545776</v>
+        <v>0.9601008892059326</v>
       </c>
       <c r="E180" t="b">
         <v>1</v>
@@ -4580,7 +4580,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>833-phrase</t>
+          <t>952-phrase</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -4594,7 +4594,7 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>0.985059380531311</v>
+        <v>0.8792985081672668</v>
       </c>
       <c r="E181" t="b">
         <v>1</v>
@@ -4603,21 +4603,21 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2023-phrase</t>
+          <t>1584-phrase</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>0.9690333604812622</v>
+        <v>0.9339309334754944</v>
       </c>
       <c r="E182" t="b">
         <v>1</v>
@@ -4626,7 +4626,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2082-phrase</t>
+          <t>1392-phrase</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -4640,7 +4640,7 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>0.9175534844398499</v>
+        <v>0.9758126735687256</v>
       </c>
       <c r="E183" t="b">
         <v>1</v>
@@ -4649,21 +4649,21 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>982-phrase</t>
+          <t>1961-phrase</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>0.8436985611915588</v>
+        <v>0.9730980396270752</v>
       </c>
       <c r="E184" t="b">
         <v>1</v>
@@ -4672,21 +4672,21 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>1746-phrase</t>
+          <t>1080-phrase</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>0.9548344016075134</v>
+        <v>0.8988419771194458</v>
       </c>
       <c r="E185" t="b">
         <v>1</v>
@@ -4695,21 +4695,21 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>3-phrase</t>
+          <t>2066-phrase</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>0.9492042660713196</v>
+        <v>0.973724901676178</v>
       </c>
       <c r="E186" t="b">
         <v>1</v>
@@ -4718,21 +4718,21 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>1541-phrase</t>
+          <t>2559-phrase</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>0.842133104801178</v>
+        <v>0.9605803489685059</v>
       </c>
       <c r="E187" t="b">
         <v>1</v>
@@ -4741,21 +4741,21 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>1302-phrase</t>
+          <t>1169-phrase</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>0.8981730937957764</v>
+        <v>0.9354245066642761</v>
       </c>
       <c r="E188" t="b">
         <v>1</v>
@@ -4764,7 +4764,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2481-phrase</t>
+          <t>1545-phrase</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>0.9413896203041077</v>
+        <v>0.9683704972267151</v>
       </c>
       <c r="E189" t="b">
         <v>1</v>
@@ -4787,7 +4787,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>961-phrase</t>
+          <t>1028-phrase</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -4801,7 +4801,7 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>0.9428261518478394</v>
+        <v>0.957801878452301</v>
       </c>
       <c r="E190" t="b">
         <v>1</v>
@@ -4810,7 +4810,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2131-phrase</t>
+          <t>2223-phrase</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -4824,7 +4824,7 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>0.9144325256347656</v>
+        <v>0.9527897834777832</v>
       </c>
       <c r="E191" t="b">
         <v>1</v>
@@ -4833,7 +4833,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2103-phrase</t>
+          <t>2460-phrase</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -4847,7 +4847,7 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>0.8605234622955322</v>
+        <v>0.9730800986289978</v>
       </c>
       <c r="E192" t="b">
         <v>1</v>
@@ -4856,21 +4856,21 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2570-phrase</t>
+          <t>1375-phrase</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>0.9456888437271118</v>
+        <v>0.8990827798843384</v>
       </c>
       <c r="E193" t="b">
         <v>1</v>
@@ -4879,21 +4879,21 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>745-phrase</t>
+          <t>925-phrase</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>0.9354439973831177</v>
+        <v>0.9741535782814026</v>
       </c>
       <c r="E194" t="b">
         <v>1</v>
@@ -4902,7 +4902,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>12-phrase</t>
+          <t>1208-phrase</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -4916,7 +4916,7 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>0.9548885226249695</v>
+        <v>0.9323080778121948</v>
       </c>
       <c r="E195" t="b">
         <v>1</v>
@@ -4925,21 +4925,21 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>1017-phrase</t>
+          <t>2083-phrase</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>0.8335152268409729</v>
+        <v>0.9697288274765015</v>
       </c>
       <c r="E196" t="b">
         <v>1</v>
@@ -4948,7 +4948,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>45-phrase</t>
+          <t>70-phrase</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -4962,7 +4962,7 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>0.9124942421913147</v>
+        <v>0.8808771371841431</v>
       </c>
       <c r="E197" t="b">
         <v>1</v>
@@ -4971,21 +4971,21 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>1151-phrase</t>
+          <t>1953-phrase</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>0.9064706563949585</v>
+        <v>0.9363896250724792</v>
       </c>
       <c r="E198" t="b">
         <v>1</v>
@@ -4994,7 +4994,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>1965-phrase</t>
+          <t>2304-phrase</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -5008,7 +5008,7 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>0.8940271735191345</v>
+        <v>0.9690413475036621</v>
       </c>
       <c r="E199" t="b">
         <v>1</v>
@@ -5017,7 +5017,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>1847-phrase</t>
+          <t>1533-phrase</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -5031,7 +5031,7 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>0.7538504600524902</v>
+        <v>0.9427095055580139</v>
       </c>
       <c r="E200" t="b">
         <v>1</v>
@@ -5040,21 +5040,21 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>832-phrase</t>
+          <t>1592-phrase</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>0.9426262378692627</v>
+        <v>0.9322482943534851</v>
       </c>
       <c r="E201" t="b">
         <v>1</v>
@@ -5063,7 +5063,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>1124-phrase</t>
+          <t>960-phrase</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -5077,7 +5077,7 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>0.7654731869697571</v>
+        <v>0.9602171778678894</v>
       </c>
       <c r="E202" t="b">
         <v>1</v>
@@ -5086,7 +5086,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>1622-phrase</t>
+          <t>2020-phrase</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -5096,34 +5096,34 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>0.9477479457855225</v>
+        <v>0.8291804790496826</v>
       </c>
       <c r="E203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2295-phrase</t>
+          <t>1100-phrase</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>0.8975979089736938</v>
+        <v>0.9222387671470642</v>
       </c>
       <c r="E204" t="b">
         <v>1</v>
@@ -5132,21 +5132,21 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>1872-phrase</t>
+          <t>1600-phrase</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>0.9527643322944641</v>
+        <v>0.7577228546142578</v>
       </c>
       <c r="E205" t="b">
         <v>1</v>
@@ -5155,7 +5155,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2555-phrase</t>
+          <t>727-phrase</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -5169,7 +5169,7 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>0.7681737542152405</v>
+        <v>0.9706839323043823</v>
       </c>
       <c r="E206" t="b">
         <v>1</v>
@@ -5178,21 +5178,21 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2402-phrase</t>
+          <t>1916-phrase</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>0.8883196115493774</v>
+        <v>0.9592196345329285</v>
       </c>
       <c r="E207" t="b">
         <v>1</v>
@@ -5201,7 +5201,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2595-phrase</t>
+          <t>1491-phrase</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -5211,34 +5211,34 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>0.940221905708313</v>
+        <v>0.5623124837875366</v>
       </c>
       <c r="E208" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2115-phrase</t>
+          <t>962-phrase</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>0.9049407243728638</v>
+        <v>0.9431993961334229</v>
       </c>
       <c r="E209" t="b">
         <v>1</v>
@@ -5247,21 +5247,21 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>1734-phrase</t>
+          <t>2186-phrase</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>0.9225525259971619</v>
+        <v>0.8931776881217957</v>
       </c>
       <c r="E210" t="b">
         <v>1</v>
@@ -5270,21 +5270,21 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2108-phrase</t>
+          <t>670-phrase</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>0.9263181090354919</v>
+        <v>0.9760364890098572</v>
       </c>
       <c r="E211" t="b">
         <v>1</v>
@@ -5293,7 +5293,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>1504-phrase</t>
+          <t>26-phrase</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -5307,7 +5307,7 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>0.9486657381057739</v>
+        <v>0.9391331672668457</v>
       </c>
       <c r="E212" t="b">
         <v>1</v>
@@ -5316,7 +5316,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2476-phrase</t>
+          <t>1599-phrase</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -5330,7 +5330,7 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>0.9662562608718872</v>
+        <v>0.9088045954704285</v>
       </c>
       <c r="E213" t="b">
         <v>1</v>
@@ -5339,21 +5339,21 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>963-phrase</t>
+          <t>1453-phrase</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>0.9331693053245544</v>
+        <v>0.9652067422866821</v>
       </c>
       <c r="E214" t="b">
         <v>1</v>
@@ -5362,7 +5362,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>688-phrase</t>
+          <t>1100-phrase</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -5376,7 +5376,7 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>0.9502782821655273</v>
+        <v>0.9222387671470642</v>
       </c>
       <c r="E215" t="b">
         <v>1</v>
@@ -5385,21 +5385,21 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>1169-phrase</t>
+          <t>1658-phrase</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>0.9587997198104858</v>
+        <v>0.9760813117027283</v>
       </c>
       <c r="E216" t="b">
         <v>1</v>
@@ -5408,7 +5408,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>992-phrase</t>
+          <t>941-phrase</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -5422,7 +5422,7 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>0.8980636596679688</v>
+        <v>0.9612241387367249</v>
       </c>
       <c r="E217" t="b">
         <v>1</v>
@@ -5431,7 +5431,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>1335-phrase</t>
+          <t>2571-phrase</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>0.8769352436065674</v>
+        <v>0.953178346157074</v>
       </c>
       <c r="E218" t="b">
         <v>1</v>
@@ -5454,21 +5454,21 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2575-phrase</t>
+          <t>687-phrase</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>0.9374765753746033</v>
+        <v>0.8401945829391479</v>
       </c>
       <c r="E219" t="b">
         <v>1</v>
@@ -5477,7 +5477,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2583-phrase</t>
+          <t>2386-phrase</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>0.5230333209037781</v>
+        <v>0.9343838095664978</v>
       </c>
       <c r="E220" t="b">
         <v>1</v>
@@ -5500,21 +5500,21 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>736-phrase</t>
+          <t>2110-phrase</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>0.9086518883705139</v>
+        <v>0.9424263834953308</v>
       </c>
       <c r="E221" t="b">
         <v>1</v>
@@ -5523,7 +5523,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>1376-phrase</t>
+          <t>2122-phrase</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -5537,7 +5537,7 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>0.9194340109825134</v>
+        <v>0.9677956700325012</v>
       </c>
       <c r="E222" t="b">
         <v>1</v>
@@ -5546,7 +5546,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>15-phrase</t>
+          <t>1524-phrase</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -5560,7 +5560,7 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>0.9312098026275635</v>
+        <v>0.9278307557106018</v>
       </c>
       <c r="E223" t="b">
         <v>1</v>
@@ -5569,21 +5569,21 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>724-phrase</t>
+          <t>953-phrase</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>0.9443153142929077</v>
+        <v>0.9644269943237305</v>
       </c>
       <c r="E224" t="b">
         <v>1</v>
@@ -5592,21 +5592,21 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>1753-phrase</t>
+          <t>1839-phrase</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>0.771228551864624</v>
+        <v>0.9255813956260681</v>
       </c>
       <c r="E225" t="b">
         <v>1</v>
@@ -5615,7 +5615,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2006-phrase</t>
+          <t>1225-phrase</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -5629,7 +5629,7 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>0.9679191708564758</v>
+        <v>0.9775999188423157</v>
       </c>
       <c r="E226" t="b">
         <v>1</v>
@@ -5638,21 +5638,21 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>1170-phrase</t>
+          <t>2218-phrase</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>0.9687040448188782</v>
+        <v>0.9727989435195923</v>
       </c>
       <c r="E227" t="b">
         <v>1</v>
@@ -5661,21 +5661,21 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>133-phrase</t>
+          <t>2587-phrase</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>0.9332077503204346</v>
+        <v>0.9684517383575439</v>
       </c>
       <c r="E228" t="b">
         <v>1</v>
@@ -5684,21 +5684,21 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>1274-phrase</t>
+          <t>1139-phrase</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>0.8162575960159302</v>
+        <v>0.9373769760131836</v>
       </c>
       <c r="E229" t="b">
         <v>1</v>
@@ -5707,7 +5707,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>2398-phrase</t>
+          <t>1792-phrase</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>0.9777776002883911</v>
+        <v>0.901616632938385</v>
       </c>
       <c r="E230" t="b">
         <v>1</v>
@@ -5730,21 +5730,21 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>806-phrase</t>
+          <t>1668-phrase</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>0.9688142538070679</v>
+        <v>0.930699348449707</v>
       </c>
       <c r="E231" t="b">
         <v>1</v>
@@ -5753,21 +5753,21 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>1758-phrase</t>
+          <t>45-phrase</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>0.9035317301750183</v>
+        <v>0.85709148645401</v>
       </c>
       <c r="E232" t="b">
         <v>1</v>
@@ -5776,7 +5776,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>990-phrase</t>
+          <t>2282-phrase</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -5790,7 +5790,7 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>0.8725183010101318</v>
+        <v>0.9376646876335144</v>
       </c>
       <c r="E233" t="b">
         <v>1</v>
@@ -5799,21 +5799,21 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>492-phrase</t>
+          <t>31-phrase</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>0.7901132106781006</v>
+        <v>0.9548675417900085</v>
       </c>
       <c r="E234" t="b">
         <v>1</v>
@@ -5822,7 +5822,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>1065-phrase</t>
+          <t>18-phrase</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -5836,7 +5836,7 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>0.9332301616668701</v>
+        <v>0.8552355766296387</v>
       </c>
       <c r="E235" t="b">
         <v>1</v>
@@ -5845,7 +5845,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>1696-phrase</t>
+          <t>1711-phrase</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -5859,7 +5859,7 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>0.9252558946609497</v>
+        <v>0.775252640247345</v>
       </c>
       <c r="E236" t="b">
         <v>1</v>
@@ -5868,7 +5868,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>504-phrase</t>
+          <t>2007-phrase</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -5882,7 +5882,7 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>0.9505985379219055</v>
+        <v>0.9254835844039917</v>
       </c>
       <c r="E237" t="b">
         <v>1</v>
@@ -5891,12 +5891,12 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>1281-phrase</t>
+          <t>682-phrase</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -5905,21 +5905,21 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>0.8939535617828369</v>
+        <v>0.8065534234046936</v>
       </c>
       <c r="E238" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>1013-phrase</t>
+          <t>1927-phrase</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -5928,16 +5928,16 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>0.9587808847427368</v>
+        <v>0.6903375387191772</v>
       </c>
       <c r="E239" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>12-phrase</t>
+          <t>1020-phrase</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -5951,7 +5951,7 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>0.9548885226249695</v>
+        <v>0.9779415130615234</v>
       </c>
       <c r="E240" t="b">
         <v>1</v>
@@ -5960,7 +5960,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>126-phrase</t>
+          <t>1920-phrase</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -5974,7 +5974,7 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>0.8889598846435547</v>
+        <v>0.9428651332855225</v>
       </c>
       <c r="E241" t="b">
         <v>1</v>
@@ -5983,7 +5983,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2151-phrase</t>
+          <t>2368-phrase</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -5997,7 +5997,7 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>0.9668271541595459</v>
+        <v>0.815635085105896</v>
       </c>
       <c r="E242" t="b">
         <v>1</v>
@@ -6006,21 +6006,21 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>60-phrase</t>
+          <t>851-phrase</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>0.9699952602386475</v>
+        <v>0.950131893157959</v>
       </c>
       <c r="E243" t="b">
         <v>1</v>
@@ -6029,12 +6029,12 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2262-phrase</t>
+          <t>1759-phrase</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -6043,16 +6043,16 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>0.9525793194770813</v>
+        <v>0.9732123613357544</v>
       </c>
       <c r="E244" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>1363-phrase</t>
+          <t>706-phrase</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>0.8965926766395569</v>
+        <v>0.9393863081932068</v>
       </c>
       <c r="E245" t="b">
         <v>1</v>
@@ -6075,21 +6075,21 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>2521-phrase</t>
+          <t>837-phrase</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D246" t="n">
-        <v>0.9211281538009644</v>
+        <v>0.9155445098876953</v>
       </c>
       <c r="E246" t="b">
         <v>1</v>
@@ -6098,21 +6098,21 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>1572-phrase</t>
+          <t>1151-phrase</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D247" t="n">
-        <v>0.8710893392562866</v>
+        <v>0.9393401145935059</v>
       </c>
       <c r="E247" t="b">
         <v>1</v>
@@ -6121,7 +6121,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>80-phrase</t>
+          <t>1098-phrase</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -6135,7 +6135,7 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>0.8994877338409424</v>
+        <v>0.9586709141731262</v>
       </c>
       <c r="E248" t="b">
         <v>1</v>
@@ -6144,7 +6144,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>1123-phrase</t>
+          <t>1137-phrase</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -6158,7 +6158,7 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>0.9550323486328125</v>
+        <v>0.8894397020339966</v>
       </c>
       <c r="E249" t="b">
         <v>1</v>
@@ -6167,21 +6167,21 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>1644-phrase</t>
+          <t>1583-phrase</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D250" t="n">
-        <v>0.8700870275497437</v>
+        <v>0.9542641639709473</v>
       </c>
       <c r="E250" t="b">
         <v>1</v>
@@ -6190,21 +6190,21 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2084-phrase</t>
+          <t>2468-phrase</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D251" t="n">
-        <v>0.9416753649711609</v>
+        <v>0.9674077033996582</v>
       </c>
       <c r="E251" t="b">
         <v>1</v>
@@ -6213,7 +6213,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>2081-phrase</t>
+          <t>849-phrase</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -6227,7 +6227,7 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>0.9441380500793457</v>
+        <v>0.9711776375770569</v>
       </c>
       <c r="E252" t="b">
         <v>1</v>
@@ -6236,7 +6236,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>1358-phrase</t>
+          <t>12-phrase</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -6250,7 +6250,7 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>0.9358424544334412</v>
+        <v>0.8916335701942444</v>
       </c>
       <c r="E253" t="b">
         <v>1</v>
@@ -6259,7 +6259,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2445-phrase</t>
+          <t>940-phrase</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -6273,7 +6273,7 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>0.9750825762748718</v>
+        <v>0.9774889945983887</v>
       </c>
       <c r="E254" t="b">
         <v>1</v>
@@ -6282,7 +6282,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>113-phrase</t>
+          <t>1101-phrase</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>0.9342201948165894</v>
+        <v>0.950772762298584</v>
       </c>
       <c r="E255" t="b">
         <v>1</v>
@@ -6305,21 +6305,21 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>1246-phrase</t>
+          <t>941-phrase</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D256" t="n">
-        <v>0.9320858120918274</v>
+        <v>0.9612241387367249</v>
       </c>
       <c r="E256" t="b">
         <v>1</v>
@@ -6328,7 +6328,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>1718-phrase</t>
+          <t>106-phrase</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -6342,7 +6342,7 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>0.9313177466392517</v>
+        <v>0.9768093228340149</v>
       </c>
       <c r="E257" t="b">
         <v>1</v>
@@ -6351,7 +6351,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>2441-phrase</t>
+          <t>2463-phrase</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -6365,7 +6365,7 @@
         </is>
       </c>
       <c r="D258" t="n">
-        <v>0.9448705315589905</v>
+        <v>0.9676206111907959</v>
       </c>
       <c r="E258" t="b">
         <v>1</v>
@@ -6374,21 +6374,21 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>954-phrase</t>
+          <t>1205-phrase</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D259" t="n">
-        <v>0.9200195074081421</v>
+        <v>0.7292464375495911</v>
       </c>
       <c r="E259" t="b">
         <v>1</v>
@@ -6397,7 +6397,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>2245-phrase</t>
+          <t>1833-phrase</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -6411,7 +6411,7 @@
         </is>
       </c>
       <c r="D260" t="n">
-        <v>0.959540069103241</v>
+        <v>0.9272852540016174</v>
       </c>
       <c r="E260" t="b">
         <v>1</v>
@@ -6420,21 +6420,21 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>125-phrase</t>
+          <t>2297-phrase</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D261" t="n">
-        <v>0.9463770985603333</v>
+        <v>0.9432827830314636</v>
       </c>
       <c r="E261" t="b">
         <v>1</v>
@@ -6443,7 +6443,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>2419-phrase</t>
+          <t>2276-phrase</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -6457,7 +6457,7 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>0.9361293315887451</v>
+        <v>0.9783573150634766</v>
       </c>
       <c r="E262" t="b">
         <v>1</v>
@@ -6466,7 +6466,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>1176-phrase</t>
+          <t>2258-phrase</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -6480,7 +6480,7 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>0.9590667486190796</v>
+        <v>0.9190738797187805</v>
       </c>
       <c r="E263" t="b">
         <v>1</v>
@@ -6489,7 +6489,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>2395-phrase</t>
+          <t>1220-phrase</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -6503,7 +6503,7 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>0.8789649605751038</v>
+        <v>0.9686905145645142</v>
       </c>
       <c r="E264" t="b">
         <v>1</v>
@@ -6512,21 +6512,21 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>78-phrase</t>
+          <t>2536-phrase</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D265" t="n">
-        <v>0.7114909887313843</v>
+        <v>0.9731288552284241</v>
       </c>
       <c r="E265" t="b">
         <v>1</v>
@@ -6535,7 +6535,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>1860-phrase</t>
+          <t>1359-phrase</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -6549,7 +6549,7 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>0.8710522651672363</v>
+        <v>0.8949106931686401</v>
       </c>
       <c r="E266" t="b">
         <v>1</v>
@@ -6558,7 +6558,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>1141-phrase</t>
+          <t>113-phrase</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -6572,7 +6572,7 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>0.9833826422691345</v>
+        <v>0.9742344617843628</v>
       </c>
       <c r="E267" t="b">
         <v>1</v>
@@ -6581,21 +6581,21 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>1517-phrase</t>
+          <t>1333-phrase</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D268" t="n">
-        <v>0.959063708782196</v>
+        <v>0.977155327796936</v>
       </c>
       <c r="E268" t="b">
         <v>1</v>
@@ -6604,7 +6604,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>1066-phrase</t>
+          <t>735-phrase</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -6618,7 +6618,7 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>0.9272341728210449</v>
+        <v>0.9530230760574341</v>
       </c>
       <c r="E269" t="b">
         <v>1</v>
@@ -6627,7 +6627,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>2523-phrase</t>
+          <t>2320-phrase</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -6641,7 +6641,7 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>0.9726329445838928</v>
+        <v>0.890319287776947</v>
       </c>
       <c r="E270" t="b">
         <v>1</v>
@@ -6650,7 +6650,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>716-phrase</t>
+          <t>1562-phrase</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -6664,7 +6664,7 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>0.905243992805481</v>
+        <v>0.9760910868644714</v>
       </c>
       <c r="E271" t="b">
         <v>1</v>
@@ -6673,7 +6673,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>821-phrase</t>
+          <t>2087-phrase</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -6687,7 +6687,7 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>0.9578180909156799</v>
+        <v>0.9473869204521179</v>
       </c>
       <c r="E272" t="b">
         <v>1</v>
@@ -6696,7 +6696,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>1869-phrase</t>
+          <t>2318-phrase</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -6710,7 +6710,7 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>0.9392654895782471</v>
+        <v>0.9385383725166321</v>
       </c>
       <c r="E273" t="b">
         <v>1</v>
@@ -6719,7 +6719,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>2433-phrase</t>
+          <t>1657-phrase</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -6733,7 +6733,7 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>0.9641665816307068</v>
+        <v>0.9666728377342224</v>
       </c>
       <c r="E274" t="b">
         <v>1</v>
@@ -6742,7 +6742,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>1070-phrase</t>
+          <t>1181-phrase</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -6756,7 +6756,7 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>0.9472635388374329</v>
+        <v>0.9478722810745239</v>
       </c>
       <c r="E275" t="b">
         <v>1</v>
@@ -6765,21 +6765,21 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>1810-phrase</t>
+          <t>2264-phrase</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D276" t="n">
-        <v>0.9619236588478088</v>
+        <v>0.9550854563713074</v>
       </c>
       <c r="E276" t="b">
         <v>1</v>
@@ -6788,21 +6788,21 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>155-phrase</t>
+          <t>1124-phrase</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D277" t="n">
-        <v>0.8961970806121826</v>
+        <v>0.9702072739601135</v>
       </c>
       <c r="E277" t="b">
         <v>1</v>
@@ -6811,21 +6811,21 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>1550-phrase</t>
+          <t>1372-phrase</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D278" t="n">
-        <v>0.9291923046112061</v>
+        <v>0.9348356127738953</v>
       </c>
       <c r="E278" t="b">
         <v>1</v>
@@ -6834,21 +6834,21 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>2096-phrase</t>
+          <t>1100-phrase</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D279" t="n">
-        <v>0.8625528216362</v>
+        <v>0.9222387671470642</v>
       </c>
       <c r="E279" t="b">
         <v>1</v>
@@ -6857,21 +6857,21 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>1484-phrase</t>
+          <t>60-phrase</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D280" t="n">
-        <v>0.9648479223251343</v>
+        <v>0.9818574190139771</v>
       </c>
       <c r="E280" t="b">
         <v>1</v>
@@ -6880,7 +6880,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>1883-phrase</t>
+          <t>31-phrase</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -6894,7 +6894,7 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>0.9469624161720276</v>
+        <v>0.9548675417900085</v>
       </c>
       <c r="E281" t="b">
         <v>1</v>
@@ -6903,7 +6903,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>1169-phrase</t>
+          <t>807-phrase</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -6917,7 +6917,7 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>0.9587997198104858</v>
+        <v>0.9464640021324158</v>
       </c>
       <c r="E282" t="b">
         <v>1</v>
@@ -6926,21 +6926,21 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>2416-phrase</t>
+          <t>732-phrase</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D283" t="n">
-        <v>0.8165090084075928</v>
+        <v>0.9513334035873413</v>
       </c>
       <c r="E283" t="b">
         <v>1</v>
@@ -6949,21 +6949,21 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>1020-phrase</t>
+          <t>2214-phrase</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D284" t="n">
-        <v>0.9287341237068176</v>
+        <v>0.9746196866035461</v>
       </c>
       <c r="E284" t="b">
         <v>1</v>
@@ -6972,21 +6972,21 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>1640-phrase</t>
+          <t>2254-phrase</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D285" t="n">
-        <v>0.9149792790412903</v>
+        <v>0.96323162317276</v>
       </c>
       <c r="E285" t="b">
         <v>1</v>
@@ -6995,21 +6995,21 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>2469-phrase</t>
+          <t>1081-phrase</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D286" t="n">
-        <v>0.9814547896385193</v>
+        <v>0.9982635378837585</v>
       </c>
       <c r="E286" t="b">
         <v>1</v>
@@ -7018,7 +7018,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>2271-phrase</t>
+          <t>1298-phrase</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -7028,20 +7028,20 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D287" t="n">
-        <v>0.9253312349319458</v>
+        <v>0.9197019338607788</v>
       </c>
       <c r="E287" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>2592-phrase</t>
+          <t>1525-phrase</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -7055,7 +7055,7 @@
         </is>
       </c>
       <c r="D288" t="n">
-        <v>0.9933074116706848</v>
+        <v>0.9429271221160889</v>
       </c>
       <c r="E288" t="b">
         <v>1</v>
@@ -7064,21 +7064,21 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>1554-phrase</t>
+          <t>66-phrase</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D289" t="n">
-        <v>0.9362565875053406</v>
+        <v>0.8145054578781128</v>
       </c>
       <c r="E289" t="b">
         <v>1</v>
@@ -7087,7 +7087,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>2221-phrase</t>
+          <t>2185-phrase</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>0.9658538699150085</v>
+        <v>0.9706540703773499</v>
       </c>
       <c r="E290" t="b">
         <v>1</v>
@@ -7110,21 +7110,21 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>1353-phrase</t>
+          <t>827-phrase</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D291" t="n">
-        <v>0.9148150682449341</v>
+        <v>0.9635811448097229</v>
       </c>
       <c r="E291" t="b">
         <v>1</v>
@@ -7133,7 +7133,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>1853-phrase</t>
+          <t>1068-phrase</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>0.9473825097084045</v>
+        <v>0.9379851222038269</v>
       </c>
       <c r="E292" t="b">
         <v>1</v>
@@ -7156,21 +7156,21 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>1137-phrase</t>
+          <t>2467-phrase</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D293" t="n">
-        <v>0.9812295436859131</v>
+        <v>0.9684693217277527</v>
       </c>
       <c r="E293" t="b">
         <v>1</v>
@@ -7179,7 +7179,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>16-phrase</t>
+          <t>990-phrase</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -7193,7 +7193,7 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>0.5119428634643555</v>
+        <v>0.9982605576515198</v>
       </c>
       <c r="E294" t="b">
         <v>1</v>
@@ -7202,21 +7202,21 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>1676-phrase</t>
+          <t>1102-phrase</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D295" t="n">
-        <v>0.9032324552536011</v>
+        <v>0.9456078410148621</v>
       </c>
       <c r="E295" t="b">
         <v>1</v>
@@ -7225,7 +7225,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>35-phrase</t>
+          <t>2251-phrase</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -7239,7 +7239,7 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>0.9586620330810547</v>
+        <v>0.9526744484901428</v>
       </c>
       <c r="E296" t="b">
         <v>1</v>
@@ -7248,21 +7248,21 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>820-phrase</t>
+          <t>1148-phrase</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D297" t="n">
-        <v>0.9429024457931519</v>
+        <v>0.9628708362579346</v>
       </c>
       <c r="E297" t="b">
         <v>1</v>
@@ -7271,21 +7271,21 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>1121-phrase</t>
+          <t>877-phrase</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D298" t="n">
-        <v>0.90968918800354</v>
+        <v>0.9619207382202148</v>
       </c>
       <c r="E298" t="b">
         <v>1</v>
@@ -7294,7 +7294,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>2464-phrase</t>
+          <t>2367-phrase</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>0.9431487321853638</v>
+        <v>0.9733171463012695</v>
       </c>
       <c r="E299" t="b">
         <v>1</v>
@@ -7317,7 +7317,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>123-phrase</t>
+          <t>968-phrase</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -7331,7 +7331,7 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>0.9547122716903687</v>
+        <v>0.9338711500167847</v>
       </c>
       <c r="E300" t="b">
         <v>1</v>
@@ -7340,21 +7340,21 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>1261-phrase</t>
+          <t>1528-phrase</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D301" t="n">
-        <v>0.9468768239021301</v>
+        <v>0.8727735280990601</v>
       </c>
       <c r="E301" t="b">
         <v>1</v>
@@ -7363,21 +7363,21 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>1439-phrase</t>
+          <t>1138-phrase</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D302" t="n">
-        <v>0.953728973865509</v>
+        <v>0.8872374296188354</v>
       </c>
       <c r="E302" t="b">
         <v>1</v>
@@ -7386,7 +7386,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>2031-phrase</t>
+          <t>493-phrase</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -7400,7 +7400,7 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>0.9028577208518982</v>
+        <v>0.9282215237617493</v>
       </c>
       <c r="E303" t="b">
         <v>1</v>
@@ -7409,7 +7409,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>1983-phrase</t>
+          <t>2565-phrase</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -7423,7 +7423,7 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>0.8869587182998657</v>
+        <v>0.964815080165863</v>
       </c>
       <c r="E304" t="b">
         <v>1</v>
@@ -7432,21 +7432,21 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>1027-phrase</t>
+          <t>1866-phrase</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D305" t="n">
-        <v>0.9107537865638733</v>
+        <v>0.878418505191803</v>
       </c>
       <c r="E305" t="b">
         <v>1</v>
@@ -7455,21 +7455,21 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>1687-phrase</t>
+          <t>1738-phrase</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D306" t="n">
-        <v>0.9823294281959534</v>
+        <v>0.769382119178772</v>
       </c>
       <c r="E306" t="b">
         <v>1</v>
@@ -7478,21 +7478,21 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>56-phrase</t>
+          <t>1264-phrase</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D307" t="n">
-        <v>0.9687401652336121</v>
+        <v>0.9768451452255249</v>
       </c>
       <c r="E307" t="b">
         <v>1</v>
@@ -7501,21 +7501,21 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>1185-phrase</t>
+          <t>2455-phrase</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D308" t="n">
-        <v>0.8911285400390625</v>
+        <v>0.9182713627815247</v>
       </c>
       <c r="E308" t="b">
         <v>1</v>
@@ -7524,7 +7524,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>2364-phrase</t>
+          <t>730-phrase</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -7538,7 +7538,7 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>0.9699841141700745</v>
+        <v>0.8948917388916016</v>
       </c>
       <c r="E309" t="b">
         <v>1</v>
@@ -7547,21 +7547,21 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>1254-phrase</t>
+          <t>782-phrase</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D310" t="n">
-        <v>0.9552785158157349</v>
+        <v>0.8616107702255249</v>
       </c>
       <c r="E310" t="b">
         <v>1</v>
@@ -7570,21 +7570,21 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>1243-phrase</t>
+          <t>979-phrase</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D311" t="n">
-        <v>0.876672089099884</v>
+        <v>0.9589927792549133</v>
       </c>
       <c r="E311" t="b">
         <v>1</v>
@@ -7593,7 +7593,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>1445-phrase</t>
+          <t>2608-phrase</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>0.9692230224609375</v>
+        <v>0.9721006155014038</v>
       </c>
       <c r="E312" t="b">
         <v>1</v>
@@ -7616,21 +7616,21 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>2157-phrase</t>
+          <t>1854-phrase</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D313" t="n">
-        <v>0.9520312547683716</v>
+        <v>0.9667465686798096</v>
       </c>
       <c r="E313" t="b">
         <v>1</v>
@@ -7639,21 +7639,21 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>2319-phrase</t>
+          <t>1347-phrase</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D314" t="n">
-        <v>0.9440237283706665</v>
+        <v>0.9188939929008484</v>
       </c>
       <c r="E314" t="b">
         <v>1</v>
@@ -7662,7 +7662,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>1081-phrase</t>
+          <t>1032-phrase</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -7676,7 +7676,7 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>0.977837860584259</v>
+        <v>0.8731345534324646</v>
       </c>
       <c r="E315" t="b">
         <v>1</v>
@@ -7685,7 +7685,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>1830-phrase</t>
+          <t>1456-phrase</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -7695,25 +7695,25 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D316" t="n">
-        <v>0.9220091700553894</v>
+        <v>0.9164133667945862</v>
       </c>
       <c r="E316" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>895-phrase</t>
+          <t>1023-phrase</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -7722,30 +7722,30 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>0.8582599759101868</v>
+        <v>0.9376384019851685</v>
       </c>
       <c r="E317" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>2028-phrase</t>
+          <t>1712-phrase</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D318" t="n">
-        <v>0.8620069026947021</v>
+        <v>0.9653071761131287</v>
       </c>
       <c r="E318" t="b">
         <v>1</v>
@@ -7754,21 +7754,21 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>2021-phrase</t>
+          <t>805-phrase</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D319" t="n">
-        <v>0.9485828876495361</v>
+        <v>0.928633451461792</v>
       </c>
       <c r="E319" t="b">
         <v>1</v>
@@ -7777,7 +7777,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>1234-phrase</t>
+          <t>1555-phrase</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -7791,7 +7791,7 @@
         </is>
       </c>
       <c r="D320" t="n">
-        <v>0.8764846324920654</v>
+        <v>0.9743461608886719</v>
       </c>
       <c r="E320" t="b">
         <v>1</v>
@@ -7800,7 +7800,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>56-phrase</t>
+          <t>1731-phrase</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -7814,7 +7814,7 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>0.9687401652336121</v>
+        <v>0.9209657311439514</v>
       </c>
       <c r="E321" t="b">
         <v>1</v>
@@ -7823,12 +7823,12 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>685-phrase</t>
+          <t>1897-phrase</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -7837,16 +7837,16 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>0.9211586713790894</v>
+        <v>0.8932486772537231</v>
       </c>
       <c r="E322" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>995-phrase</t>
+          <t>948-phrase</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -7860,7 +7860,7 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>0.8680241703987122</v>
+        <v>0.9028779864311218</v>
       </c>
       <c r="E323" t="b">
         <v>1</v>
@@ -7869,7 +7869,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>1024-phrase</t>
+          <t>2257-phrase</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -7883,7 +7883,7 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>0.9312323331832886</v>
+        <v>0.925463855266571</v>
       </c>
       <c r="E324" t="b">
         <v>1</v>
@@ -7892,7 +7892,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>1573-phrase</t>
+          <t>1712-phrase</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>0.9116538166999817</v>
+        <v>0.9653071761131287</v>
       </c>
       <c r="E325" t="b">
         <v>1</v>
@@ -7915,7 +7915,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>1521-phrase</t>
+          <t>1375-phrase</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -7929,7 +7929,7 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>0.9475387334823608</v>
+        <v>0.8990827798843384</v>
       </c>
       <c r="E326" t="b">
         <v>1</v>
@@ -7938,21 +7938,21 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>1172-phrase</t>
+          <t>1770-phrase</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D327" t="n">
-        <v>0.9633929133415222</v>
+        <v>0.9454287886619568</v>
       </c>
       <c r="E327" t="b">
         <v>1</v>
@@ -7961,7 +7961,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>2562-phrase</t>
+          <t>2058-phrase</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -7975,7 +7975,7 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>0.9464830160140991</v>
+        <v>0.9705672860145569</v>
       </c>
       <c r="E328" t="b">
         <v>1</v>
@@ -7984,7 +7984,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>2285-phrase</t>
+          <t>121-phrase</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -7998,7 +7998,7 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>0.8749868273735046</v>
+        <v>0.902337908744812</v>
       </c>
       <c r="E329" t="b">
         <v>1</v>
@@ -8007,7 +8007,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>2585-phrase</t>
+          <t>2265-phrase</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="D330" t="n">
-        <v>0.9113731980323792</v>
+        <v>0.9654436111450195</v>
       </c>
       <c r="E330" t="b">
         <v>1</v>
@@ -8030,21 +8030,21 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>1427-phrase</t>
+          <t>1909-phrase</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D331" t="n">
-        <v>0.9458935856819153</v>
+        <v>0.9652340412139893</v>
       </c>
       <c r="E331" t="b">
         <v>1</v>
@@ -8053,7 +8053,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>1942-phrase</t>
+          <t>1952-phrase</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -8063,25 +8063,25 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D332" t="n">
-        <v>0.9254386425018311</v>
+        <v>0.8685195446014404</v>
       </c>
       <c r="E332" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>810-phrase</t>
+          <t>1822-phrase</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -8090,16 +8090,16 @@
         </is>
       </c>
       <c r="D333" t="n">
-        <v>0.8478638529777527</v>
+        <v>0.9753575921058655</v>
       </c>
       <c r="E333" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>2068-phrase</t>
+          <t>1248-phrase</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -8113,7 +8113,7 @@
         </is>
       </c>
       <c r="D334" t="n">
-        <v>0.9035540223121643</v>
+        <v>0.9606229066848755</v>
       </c>
       <c r="E334" t="b">
         <v>1</v>
@@ -8122,12 +8122,12 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>2254-phrase</t>
+          <t>2332-phrase</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -8136,30 +8136,30 @@
         </is>
       </c>
       <c r="D335" t="n">
-        <v>0.511333167552948</v>
+        <v>0.9774500131607056</v>
       </c>
       <c r="E335" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>1877-phrase</t>
+          <t>1930-phrase</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D336" t="n">
-        <v>0.8937005996704102</v>
+        <v>0.970195472240448</v>
       </c>
       <c r="E336" t="b">
         <v>1</v>
@@ -8168,7 +8168,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>1151-phrase</t>
+          <t>1845-phrase</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="D337" t="n">
-        <v>0.9064706563949585</v>
+        <v>0.9003672003746033</v>
       </c>
       <c r="E337" t="b">
         <v>1</v>
@@ -8191,7 +8191,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>89-phrase</t>
+          <t>2576-phrase</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -8201,34 +8201,34 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D338" t="n">
-        <v>0.8835921883583069</v>
+        <v>0.8086217641830444</v>
       </c>
       <c r="E338" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>1268-phrase</t>
+          <t>1075-phrase</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D339" t="n">
-        <v>0.9112783670425415</v>
+        <v>0.9405776858329773</v>
       </c>
       <c r="E339" t="b">
         <v>1</v>
@@ -8237,7 +8237,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>1533-phrase</t>
+          <t>1034-phrase</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -8251,7 +8251,7 @@
         </is>
       </c>
       <c r="D340" t="n">
-        <v>0.8858411908149719</v>
+        <v>0.9505177140235901</v>
       </c>
       <c r="E340" t="b">
         <v>1</v>
@@ -8260,12 +8260,12 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>2034-phrase</t>
+          <t>978-phrase</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -8274,30 +8274,30 @@
         </is>
       </c>
       <c r="D341" t="n">
-        <v>0.9912446141242981</v>
+        <v>0.7420994639396667</v>
       </c>
       <c r="E341" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>135-phrase</t>
+          <t>2321-phrase</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D342" t="n">
-        <v>0.7774662375450134</v>
+        <v>0.9500316977500916</v>
       </c>
       <c r="E342" t="b">
         <v>1</v>
@@ -8306,7 +8306,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>1360-phrase</t>
+          <t>113-phrase</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -8320,7 +8320,7 @@
         </is>
       </c>
       <c r="D343" t="n">
-        <v>0.9262601137161255</v>
+        <v>0.9742344617843628</v>
       </c>
       <c r="E343" t="b">
         <v>1</v>
@@ -8329,12 +8329,12 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>83-phrase</t>
+          <t>2499-phrase</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -8343,30 +8343,30 @@
         </is>
       </c>
       <c r="D344" t="n">
-        <v>0.8271211385726929</v>
+        <v>0.9685186147689819</v>
       </c>
       <c r="E344" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>970-phrase</t>
+          <t>446-phrase</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D345" t="n">
-        <v>0.9309127926826477</v>
+        <v>0.9682941436767578</v>
       </c>
       <c r="E345" t="b">
         <v>1</v>
@@ -8375,7 +8375,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>1741-phrase</t>
+          <t>2600-phrase</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -8389,7 +8389,7 @@
         </is>
       </c>
       <c r="D346" t="n">
-        <v>0.9282606840133667</v>
+        <v>0.9416733384132385</v>
       </c>
       <c r="E346" t="b">
         <v>1</v>
@@ -8398,7 +8398,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>1092-phrase</t>
+          <t>1278-phrase</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -8412,7 +8412,7 @@
         </is>
       </c>
       <c r="D347" t="n">
-        <v>0.9173200130462646</v>
+        <v>0.9185804724693298</v>
       </c>
       <c r="E347" t="b">
         <v>1</v>
@@ -8421,21 +8421,21 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>1605-phrase</t>
+          <t>1991-phrase</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D348" t="n">
-        <v>0.9052689075469971</v>
+        <v>0.9773433208465576</v>
       </c>
       <c r="E348" t="b">
         <v>1</v>
@@ -8444,7 +8444,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>2436-phrase</t>
+          <t>1814-phrase</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -8458,7 +8458,7 @@
         </is>
       </c>
       <c r="D349" t="n">
-        <v>0.8996295928955078</v>
+        <v>0.9042946696281433</v>
       </c>
       <c r="E349" t="b">
         <v>1</v>
@@ -8467,7 +8467,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>1356-phrase</t>
+          <t>1775-phrase</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -8481,7 +8481,7 @@
         </is>
       </c>
       <c r="D350" t="n">
-        <v>0.9425391554832458</v>
+        <v>0.9503076672554016</v>
       </c>
       <c r="E350" t="b">
         <v>1</v>
@@ -8490,7 +8490,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>2013-phrase</t>
+          <t>1412-phrase</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -8504,7 +8504,7 @@
         </is>
       </c>
       <c r="D351" t="n">
-        <v>0.9735143780708313</v>
+        <v>0.9780072569847107</v>
       </c>
       <c r="E351" t="b">
         <v>1</v>
@@ -8513,21 +8513,21 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>1521-phrase</t>
+          <t>1831-phrase</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D352" t="n">
-        <v>0.9475387334823608</v>
+        <v>0.8523484468460083</v>
       </c>
       <c r="E352" t="b">
         <v>1</v>
@@ -8536,21 +8536,21 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>2158-phrase</t>
+          <t>47-phrase</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D353" t="n">
-        <v>0.9444588422775269</v>
+        <v>0.9728642702102661</v>
       </c>
       <c r="E353" t="b">
         <v>1</v>
@@ -8559,21 +8559,21 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>60-phrase</t>
+          <t>2129-phrase</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D354" t="n">
-        <v>0.9699952602386475</v>
+        <v>0.9550406336784363</v>
       </c>
       <c r="E354" t="b">
         <v>1</v>
@@ -8582,7 +8582,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>2399-phrase</t>
+          <t>1742-phrase</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="D355" t="n">
-        <v>0.9406330585479736</v>
+        <v>0.8956432342529297</v>
       </c>
       <c r="E355" t="b">
         <v>1</v>
@@ -8605,21 +8605,21 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>10-phrase</t>
+          <t>2312-phrase</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D356" t="n">
-        <v>0.9694758653640747</v>
+        <v>0.944850742816925</v>
       </c>
       <c r="E356" t="b">
         <v>1</v>
@@ -8628,21 +8628,21 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>1299-phrase</t>
+          <t>1361-phrase</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D357" t="n">
-        <v>0.8924936652183533</v>
+        <v>0.9305611848831177</v>
       </c>
       <c r="E357" t="b">
         <v>1</v>
@@ -8651,21 +8651,21 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>1238-phrase</t>
+          <t>1030-phrase</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D358" t="n">
-        <v>0.9324908256530762</v>
+        <v>0.7055371403694153</v>
       </c>
       <c r="E358" t="b">
         <v>1</v>
@@ -8674,21 +8674,21 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>1107-phrase</t>
+          <t>1232-phrase</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D359" t="n">
-        <v>0.8976882696151733</v>
+        <v>0.9713885188102722</v>
       </c>
       <c r="E359" t="b">
         <v>1</v>
@@ -8697,7 +8697,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>2564-phrase</t>
+          <t>1188-phrase</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -8711,7 +8711,7 @@
         </is>
       </c>
       <c r="D360" t="n">
-        <v>0.8577662110328674</v>
+        <v>0.9692112803459167</v>
       </c>
       <c r="E360" t="b">
         <v>1</v>
@@ -8720,7 +8720,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>2142-phrase</t>
+          <t>63-phrase</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -8734,7 +8734,7 @@
         </is>
       </c>
       <c r="D361" t="n">
-        <v>0.8900920748710632</v>
+        <v>0.9497600793838501</v>
       </c>
       <c r="E361" t="b">
         <v>1</v>
@@ -8743,12 +8743,12 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>2387-phrase</t>
+          <t>1076-phrase</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -8757,16 +8757,16 @@
         </is>
       </c>
       <c r="D362" t="n">
-        <v>0.752015233039856</v>
+        <v>0.5711268782615662</v>
       </c>
       <c r="E362" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>2003-phrase</t>
+          <t>2360-phrase</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -8780,7 +8780,7 @@
         </is>
       </c>
       <c r="D363" t="n">
-        <v>0.9504802823066711</v>
+        <v>0.8156751394271851</v>
       </c>
       <c r="E363" t="b">
         <v>1</v>
@@ -8789,7 +8789,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>1637-phrase</t>
+          <t>2404-phrase</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="D364" t="n">
-        <v>0.8180835843086243</v>
+        <v>0.9516267776489258</v>
       </c>
       <c r="E364" t="b">
         <v>1</v>
@@ -8812,12 +8812,12 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>2098-phrase</t>
+          <t>983-phrase</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -8826,16 +8826,16 @@
         </is>
       </c>
       <c r="D365" t="n">
-        <v>0.9290586709976196</v>
+        <v>0.9273435473442078</v>
       </c>
       <c r="E365" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>896-phrase</t>
+          <t>1387-phrase</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -8849,7 +8849,7 @@
         </is>
       </c>
       <c r="D366" t="n">
-        <v>0.7716999053955078</v>
+        <v>0.9754213690757751</v>
       </c>
       <c r="E366" t="b">
         <v>1</v>
@@ -8858,7 +8858,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>2190-phrase</t>
+          <t>1116-phrase</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -8872,7 +8872,7 @@
         </is>
       </c>
       <c r="D367" t="n">
-        <v>0.9619765877723694</v>
+        <v>0.9523386359214783</v>
       </c>
       <c r="E367" t="b">
         <v>1</v>
@@ -8881,12 +8881,12 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>2511-phrase</t>
+          <t>1179-phrase</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -8895,30 +8895,30 @@
         </is>
       </c>
       <c r="D368" t="n">
-        <v>0.6202651262283325</v>
+        <v>0.879071831703186</v>
       </c>
       <c r="E368" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>1320-phrase</t>
+          <t>2574-phrase</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D369" t="n">
-        <v>0.8742910027503967</v>
+        <v>0.9737843871116638</v>
       </c>
       <c r="E369" t="b">
         <v>1</v>
@@ -8927,7 +8927,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>145-phrase</t>
+          <t>1915-phrase</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -8941,7 +8941,7 @@
         </is>
       </c>
       <c r="D370" t="n">
-        <v>0.7696991562843323</v>
+        <v>0.8452308177947998</v>
       </c>
       <c r="E370" t="b">
         <v>1</v>
@@ -8950,21 +8950,21 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>2344-phrase</t>
+          <t>1837-phrase</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D371" t="n">
-        <v>0.9731101989746094</v>
+        <v>0.9336989521980286</v>
       </c>
       <c r="E371" t="b">
         <v>1</v>
@@ -8973,21 +8973,21 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>2388-phrase</t>
+          <t>2561-phrase</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D372" t="n">
-        <v>0.9677625298500061</v>
+        <v>0.966787576675415</v>
       </c>
       <c r="E372" t="b">
         <v>1</v>
@@ -8996,7 +8996,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>2286-phrase</t>
+          <t>1347-phrase</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -9010,7 +9010,7 @@
         </is>
       </c>
       <c r="D373" t="n">
-        <v>0.8914661407470703</v>
+        <v>0.9188939929008484</v>
       </c>
       <c r="E373" t="b">
         <v>1</v>
@@ -9019,7 +9019,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>991-phrase</t>
+          <t>39-phrase</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -9033,7 +9033,7 @@
         </is>
       </c>
       <c r="D374" t="n">
-        <v>0.9055611491203308</v>
+        <v>0.9750648736953735</v>
       </c>
       <c r="E374" t="b">
         <v>1</v>
@@ -9042,21 +9042,21 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>2231-phrase</t>
+          <t>1140-phrase</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D375" t="n">
-        <v>0.9396929740905762</v>
+        <v>0.948830246925354</v>
       </c>
       <c r="E375" t="b">
         <v>1</v>
@@ -9065,7 +9065,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>960-phrase</t>
+          <t>1840-phrase</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -9079,7 +9079,7 @@
         </is>
       </c>
       <c r="D376" t="n">
-        <v>0.991351842880249</v>
+        <v>0.9106979370117188</v>
       </c>
       <c r="E376" t="b">
         <v>1</v>
@@ -9088,7 +9088,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>1354-phrase</t>
+          <t>974-phrase</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -9102,7 +9102,7 @@
         </is>
       </c>
       <c r="D377" t="n">
-        <v>0.8999919295310974</v>
+        <v>0.6014057397842407</v>
       </c>
       <c r="E377" t="b">
         <v>1</v>
@@ -9111,21 +9111,21 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>1156-phrase</t>
+          <t>1360-phrase</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="D378" t="n">
-        <v>0.9633861780166626</v>
+        <v>0.9425033926963806</v>
       </c>
       <c r="E378" t="b">
         <v>1</v>
@@ -9134,7 +9134,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>1850-phrase</t>
+          <t>38-phrase</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -9148,7 +9148,7 @@
         </is>
       </c>
       <c r="D379" t="n">
-        <v>0.9094762802124023</v>
+        <v>0.8764087557792664</v>
       </c>
       <c r="E379" t="b">
         <v>1</v>
@@ -9157,12 +9157,12 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>2097-phrase</t>
+          <t>2407-phrase</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -9171,30 +9171,30 @@
         </is>
       </c>
       <c r="D380" t="n">
-        <v>0.9209641814231873</v>
+        <v>0.9247491955757141</v>
       </c>
       <c r="E380" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>1124-phrase</t>
+          <t>2116-phrase</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D381" t="n">
-        <v>0.7654731869697571</v>
+        <v>0.9725763201713562</v>
       </c>
       <c r="E381" t="b">
         <v>1</v>
@@ -9203,7 +9203,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>1092-phrase</t>
+          <t>1069-phrase</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -9217,7 +9217,7 @@
         </is>
       </c>
       <c r="D382" t="n">
-        <v>0.9173200130462646</v>
+        <v>0.9825937151908875</v>
       </c>
       <c r="E382" t="b">
         <v>1</v>
@@ -9226,21 +9226,21 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>1577-phrase</t>
+          <t>1575-phrase</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>pathology</t>
         </is>
       </c>
       <c r="D383" t="n">
-        <v>0.9220445156097412</v>
+        <v>0.9661091566085815</v>
       </c>
       <c r="E383" t="b">
         <v>1</v>
